--- a/QALegend/src/test/resources/testdata.xlsx
+++ b/QALegend/src/test/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Selenium\Main_Project\QALegend\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\QALegend-Repo\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F04232-FDCB-4A59-8457-2CFEFFAE2B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A8AAB7-E103-4856-8A5E-81B20FEF1B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Edit_Item" sheetId="7" r:id="rId7"/>
     <sheet name="Messages" sheetId="8" r:id="rId8"/>
     <sheet name="AllProjects" sheetId="9" r:id="rId9"/>
+    <sheet name="Tasks" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Title</t>
   </si>
@@ -210,6 +211,18 @@
   </si>
   <si>
     <t>AAAA</t>
+  </si>
+  <si>
+    <t>Add a new Task CRM Project</t>
+  </si>
+  <si>
+    <t>CRM-Project-Task1</t>
+  </si>
+  <si>
+    <t>Test11423</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -612,6 +625,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA85AD1A-C977-42D4-885A-A69BFE1DC800}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E100FC13-069B-4EB3-9B37-0B0120E399DF}">
   <dimension ref="A1:B2"/>
@@ -963,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78071C64-6715-4077-A2C7-3916812138EE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/QALegend/src/test/resources/testdata.xlsx
+++ b/QALegend/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\QALegend-Repo\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A8AAB7-E103-4856-8A5E-81B20FEF1B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E51A7C-7C45-4EE0-8DB2-9E8F043FCDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,15 +192,9 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>ghjkhjk</t>
-  </si>
-  <si>
     <t>To</t>
   </si>
   <si>
-    <t>Ancy sunny</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>Ancy Sunny</t>
+  </si>
+  <si>
+    <t>Hai, Ancy</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA85AD1A-C977-42D4-885A-A69BFE1DC800}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -648,18 +648,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95BA0D2-4554-41C3-A7CD-F15463CBF097}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2000</v>

--- a/QALegend/src/test/resources/testdata.xlsx
+++ b/QALegend/src/test/resources/testdata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\QALegend-Repo\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E51A7C-7C45-4EE0-8DB2-9E8F043FCDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F17ACA9-B45F-4690-B60A-922024344DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Clients" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Items" sheetId="6" r:id="rId6"/>
     <sheet name="Edit_Item" sheetId="7" r:id="rId7"/>
@@ -117,9 +117,6 @@
     <t>Kerala</t>
   </si>
   <si>
-    <t>TestingCompany</t>
-  </si>
-  <si>
     <t>firstname</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Hai, Ancy</t>
+  </si>
+  <si>
+    <t>NewTest Company</t>
   </si>
 </sst>
 </file>
@@ -648,18 +648,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3ACDF1-F2A9-449F-AC84-9F10754C260F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -819,45 +819,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>8956784523</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="1">
         <v>123456</v>
@@ -894,21 +894,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
       <c r="D2">
         <v>20000</v>
@@ -937,7 +937,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -946,24 +946,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>40000</v>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95BA0D2-4554-41C3-A7CD-F15463CBF097}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -989,24 +989,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
       <c r="D2">
         <v>2000</v>

--- a/QALegend/src/test/resources/testdata.xlsx
+++ b/QALegend/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\QALegend-Repo\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F17ACA9-B45F-4690-B60A-922024344DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D62D32-16EF-429D-8EF3-5DA1180F49D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>Sample Project Test</t>
   </si>
   <si>
-    <t>add projects</t>
-  </si>
-  <si>
     <t>AAAA</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>NewTest Company</t>
+  </si>
+  <si>
+    <t>Sample Project added</t>
   </si>
 </sst>
 </file>
@@ -648,18 +648,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3ACDF1-F2A9-449F-AC84-9F10754C260F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1018,15 +1018,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78071C64-6715-4077-A2C7-3916812138EE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,10 +1051,10 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>2000</v>
